--- a/交付物/xlsx/GRADE_SYRCLE质量评价表_已填写.xlsx
+++ b/交付物/xlsx/GRADE_SYRCLE质量评价表_已填写.xlsx
@@ -1111,7 +1111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1557,6 +1557,63 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>王艺2025: 35只SD大鼠随机分为5组，方法学报告一般，未提及伦理审批</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>朱牧2013</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>不清楚</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>不清楚</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>不清楚</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>低</t>
         </is>
       </c>
     </row>
@@ -1916,9 +1973,7 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-    </row>
+    <row r="15"/>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
